--- a/Corridor_Profile/Input_Files/FTW_Corridors.xlsx
+++ b/Corridor_Profile/Input_Files/FTW_Corridors.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/FDTMP_WebAPP/Corridor_Profile/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/FDTMP_WebAPP/Corridor_Profile/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_48AED674229941DFE6EE6670E3C1AA116E963316" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2261BE5-F444-49AC-B4AE-D1B85BAEFD41}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8DB6177D7668418A5AADEEC107A68A7D6E963316" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50111FF5-4E26-43BC-8D79-0E74FDB294A7}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection sqref="A1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,6 +1084,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091D4D65A8029A74988CA7D1D00094EF9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6b4e795525bd255b7efa7c1da0b9372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="181fec0f-4717-4390-b240-da7bd5a26b76" xmlns:ns3="e03b7d8c-7947-44f9-9112-5307e14ef7f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55de5683b03352c36ef40561bbf579d6" ns2:_="" ns3:_="">
     <xsd:import namespace="181fec0f-4717-4390-b240-da7bd5a26b76"/>
@@ -1296,28 +1316,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB5F584F-DCC7-475A-AC60-886AA7F40966}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
+    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F7D51C-9C23-4A43-8C7F-29DA9DB5F246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8C9BBB1-18B0-4CF4-901A-05C82C424FE4}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1647F43-2FE8-4F9A-BB0D-0A7C2D878F13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -1333,23 +1352,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2D5BD8-0819-470E-BDF4-D71063F9B085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
-    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94ABFFB6-D2D5-4B50-9765-A19DCF474213}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Corridor_Profile/Input_Files/FTW_Corridors.xlsx
+++ b/Corridor_Profile/Input_Files/FTW_Corridors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jacobsengineering.sharepoint.com/sites/CPWHXM4502/Shared Documents/40_Tasks/01_Existing and Future Conditions/08 Web APP/FDTMP_WebAPP/Corridor_Profile/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_8DB6177D7668418A5AADEEC107A68A7D6E963316" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{50111FF5-4E26-43BC-8D79-0E74FDB294A7}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_8DB6177D7668418A5AADEEC107A68A7D6E963316" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A8F3A1D-1B83-453B-AA5D-13C66BBCEFA5}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,16 +744,16 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,16 +767,16 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -790,16 +790,16 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -813,16 +813,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -836,16 +836,16 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -859,16 +859,16 @@
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -882,21 +882,21 @@
         <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>39</v>
@@ -905,21 +905,21 @@
         <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
@@ -928,21 +928,21 @@
         <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
@@ -951,16 +951,16 @@
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -974,16 +974,16 @@
         <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -997,16 +997,16 @@
         <v>60</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1066,16 +1066,16 @@
         <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="G20" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1084,26 +1084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091D4D65A8029A74988CA7D1D00094EF9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6b4e795525bd255b7efa7c1da0b9372">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="181fec0f-4717-4390-b240-da7bd5a26b76" xmlns:ns3="e03b7d8c-7947-44f9-9112-5307e14ef7f7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="55de5683b03352c36ef40561bbf579d6" ns2:_="" ns3:_="">
     <xsd:import namespace="181fec0f-4717-4390-b240-da7bd5a26b76"/>
@@ -1316,26 +1296,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB5F584F-DCC7-475A-AC60-886AA7F40966}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
-    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F7D51C-9C23-4A43-8C7F-29DA9DB5F246}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="181fec0f-4717-4390-b240-da7bd5a26b76">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="e03b7d8c-7947-44f9-9112-5307e14ef7f7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1647F43-2FE8-4F9A-BB0D-0A7C2D878F13}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1352,4 +1333,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F7D51C-9C23-4A43-8C7F-29DA9DB5F246}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB5F584F-DCC7-475A-AC60-886AA7F40966}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="181fec0f-4717-4390-b240-da7bd5a26b76"/>
+    <ds:schemaRef ds:uri="e03b7d8c-7947-44f9-9112-5307e14ef7f7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>